--- a/xlsx/道路通行方向_intext.xlsx
+++ b/xlsx/道路通行方向_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="765">
   <si>
     <t>道路通行方向</t>
   </si>
@@ -29,19 +29,19 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_美國_道路通行方向</t>
+    <t>政策_政策_美国_道路通行方向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>東帝汶</t>
+    <t>东帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%99%95%E5%A5%B3%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬處女群島</t>
+    <t>美属处女群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%87%8C%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇里南</t>
+    <t>苏里南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -95,21 +95,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E5%9B%BD</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
@@ -155,9 +152,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
   </si>
   <si>
-    <t>苏里南</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E5%BA%9C</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%BF%E7%AB%99</t>
   </si>
   <si>
@@ -239,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
@@ -359,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F</t>
   </si>
   <si>
-    <t>心臟</t>
+    <t>心脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>抗日戰爭</t>
+    <t>抗日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8F%B4</t>
@@ -473,25 +464,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B9%A3</t>
   </si>
   <si>
-    <t>法幣</t>
+    <t>法币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B0%E9%8D%B0</t>
   </si>
   <si>
-    <t>罰鍰</t>
+    <t>罚锾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -515,9 +506,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%97%A8</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%98%BF</t>
   </si>
   <si>
@@ -551,15 +539,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
@@ -569,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -599,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子島</t>
+    <t>爱德华王子岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>紐芬蘭</t>
+    <t>纽芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9B%BD</t>
@@ -617,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>撒丁尼亞王國</t>
+    <t>撒丁尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%8E%8B%E5%9B%BD</t>
@@ -677,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8</t>
@@ -695,21 +677,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>薩摩亞</t>
+    <t>萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
   </si>
   <si>
@@ -719,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
@@ -749,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
   </si>
   <si>
-    <t>缅甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%A5%88%E6%B8%A9</t>
   </si>
   <si>
@@ -779,25 +752,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%93%9A%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日據時期</t>
+    <t>台湾日据时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8D%97%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>台南車站</t>
+    <t>台南车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%97%A5%E6%93%9A%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣日據時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%BA%E5%B9%A3</t>
   </si>
   <si>
-    <t>新臺幣</t>
+    <t>新台币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/730_(%E4%BA%A4%E9%80%9A)</t>
@@ -815,31 +785,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>琉球群島</t>
+    <t>琉球群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%BB%E7%90%86%E7%90%89%E7%90%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>美國治理琉球時期</t>
+    <t>美国治理琉球时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓帝國</t>
+    <t>大韩帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>朝鮮日治時期</t>
+    <t>朝鲜日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E7%B8%BD%E7%9D%A3%E5%BA%9C</t>
   </si>
   <si>
-    <t>朝鮮總督府</t>
+    <t>朝鲜总督府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%8A%95%E9%99%8D</t>
@@ -851,19 +821,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E6%9C%9D%E9%AE%AE%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E5%8F%B8%E4%BB%A4%E9%83%A8%E8%BB%8D%E6%94%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>駐朝鮮美國陸軍司令部軍政廳</t>
+    <t>驻朝鲜美国陆军司令部军政厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%9C%9F%E6%B5%B7%E6%B4%8B%E9%83%A8</t>
   </si>
   <si>
-    <t>大韓民國國土海洋部</t>
+    <t>大韩民国国土海洋部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -917,9 +884,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
@@ -941,31 +905,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國殖民地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港日治時期</t>
+    <t>香港日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8D%97</t>
   </si>
   <si>
-    <t>華南</t>
+    <t>华南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B5%B7</t>
@@ -977,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E7%8F%A0%E6%BE%B3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>港珠澳大橋</t>
+    <t>港珠澳大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
@@ -995,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%8A%A0%E6%96%AF%E8%B7%AF</t>
@@ -1127,15 +1085,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
   </si>
   <si>
@@ -1175,37 +1127,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%85%89%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>星光部隊</t>
+    <t>星光部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>新加坡軍隊</t>
+    <t>新加坡军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E9%87%8D%E6%A9%9F</t>
   </si>
   <si>
-    <t>起重機</t>
+    <t>起重机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8A%E8%BB%8A</t>
   </si>
   <si>
-    <t>吊車</t>
+    <t>吊车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%B4%99F1</t>
   </si>
   <si>
-    <t>麥拉崙F1</t>
+    <t>麦拉崙F1</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -1241,19 +1193,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%A3%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾代夫</t>
+    <t>马尔代夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
   </si>
   <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B0%94%E5%BE%B7%E5%B0%BC%E7%BE%A4%E5%B2%9B</t>
@@ -1271,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%81%A9%E5%B2%9B</t>
@@ -1283,19 +1232,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>澤西島</t>
+    <t>泽西岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
@@ -1385,15 +1334,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
   </si>
   <si>
@@ -1427,9 +1373,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>圭亞那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
   </si>
   <si>
@@ -1481,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖誕島</t>
+    <t>圣诞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -1517,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -1571,19 +1514,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华民国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -1601,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
-    <t>亞塞拜然</t>
+    <t>亚塞拜然</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1625,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E</t>
   </si>
   <si>
-    <t>喬治亞</t>
+    <t>乔治亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
@@ -1709,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -1733,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B</t>
@@ -1859,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -2153,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南蘇丹共和國</t>
+    <t>南苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -2231,9 +2171,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
   </si>
   <si>
@@ -2321,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E5%88%A9%E5%AE%89%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬利安納群島</t>
+    <t>北马利安纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -2351,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E</t>
   </si>
   <si>
-    <t>帕勞</t>
+    <t>帕劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -2363,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E8%B7%9D</t>
@@ -3149,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
         <v>25</v>
@@ -3175,10 +3112,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -3204,10 +3141,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -3233,10 +3170,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -3262,10 +3199,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -3291,10 +3228,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -3320,10 +3257,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3349,10 +3286,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3378,10 +3315,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3407,10 +3344,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3436,10 +3373,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3465,10 +3402,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3494,10 +3431,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3523,10 +3460,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3552,10 +3489,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3581,10 +3518,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G30" t="n">
         <v>9</v>
@@ -3610,10 +3547,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3639,10 +3576,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3668,10 +3605,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3697,10 +3634,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3726,10 +3663,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3755,10 +3692,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>12</v>
@@ -3784,10 +3721,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3813,10 +3750,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3842,10 +3779,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3871,10 +3808,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3900,10 +3837,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -3929,10 +3866,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>9</v>
@@ -3958,10 +3895,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3987,10 +3924,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>8</v>
@@ -4016,10 +3953,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -4045,10 +3982,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>7</v>
@@ -4074,10 +4011,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -4103,10 +4040,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4132,10 +4069,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>19</v>
@@ -4161,10 +4098,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -4190,10 +4127,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>13</v>
@@ -4219,10 +4156,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4248,10 +4185,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4277,10 +4214,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4306,10 +4243,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4335,10 +4272,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>17</v>
@@ -4364,10 +4301,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4393,10 +4330,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4422,10 +4359,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4451,10 +4388,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4480,10 +4417,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4509,10 +4446,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4538,10 +4475,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4567,10 +4504,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4596,10 +4533,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>9</v>
@@ -4625,10 +4562,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4654,10 +4591,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4683,10 +4620,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>8</v>
@@ -4712,10 +4649,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4741,10 +4678,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4770,10 +4707,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4799,10 +4736,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4828,10 +4765,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4857,10 +4794,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4886,10 +4823,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4915,10 +4852,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4944,10 +4881,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4973,10 +4910,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -5002,10 +4939,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -5031,10 +4968,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5060,10 +4997,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -5089,10 +5026,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5118,10 +5055,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5147,10 +5084,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5176,10 +5113,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -5205,10 +5142,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5234,10 +5171,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5263,10 +5200,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -5292,10 +5229,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -5321,10 +5258,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -5350,10 +5287,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5379,10 +5316,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5437,10 +5374,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -5466,10 +5403,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
         <v>35</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
       </c>
       <c r="G95" t="n">
         <v>74</v>
@@ -5495,10 +5432,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5524,10 +5461,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5553,10 +5490,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5582,10 +5519,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5611,10 +5548,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5640,10 +5577,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5669,10 +5606,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5698,10 +5635,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5727,10 +5664,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5756,10 +5693,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5785,10 +5722,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5814,10 +5751,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5843,10 +5780,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5872,10 +5809,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5901,10 +5838,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5930,10 +5867,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5959,10 +5896,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5988,10 +5925,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6017,10 +5954,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -6046,10 +5983,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -6075,10 +6012,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6104,10 +6041,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="G117" t="n">
         <v>10</v>
@@ -6133,10 +6070,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6162,10 +6099,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6191,10 +6128,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6220,10 +6157,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6249,10 +6186,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6278,10 +6215,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6307,10 +6244,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6336,10 +6273,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6365,10 +6302,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6394,10 +6331,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6423,10 +6360,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6452,10 +6389,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6481,10 +6418,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6510,10 +6447,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6539,10 +6476,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6568,10 +6505,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6597,10 +6534,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6626,10 +6563,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6655,10 +6592,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6684,10 +6621,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6713,10 +6650,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6742,10 +6679,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6771,10 +6708,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6800,10 +6737,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6829,10 +6766,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6858,10 +6795,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -6887,10 +6824,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6916,10 +6853,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>7</v>
@@ -6945,10 +6882,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6974,10 +6911,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7003,10 +6940,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7032,10 +6969,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -7061,10 +6998,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>5</v>
@@ -7090,10 +7027,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7119,10 +7056,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7148,10 +7085,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7177,10 +7114,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7206,10 +7143,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -7235,10 +7172,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7264,10 +7201,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7293,10 +7230,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7322,10 +7259,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7351,10 +7288,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7380,10 +7317,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7409,10 +7346,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7438,10 +7375,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7467,10 +7404,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7496,10 +7433,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7525,10 +7462,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7554,10 +7491,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7583,10 +7520,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7612,10 +7549,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>8</v>
@@ -7641,10 +7578,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7670,10 +7607,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7699,10 +7636,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7728,10 +7665,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7757,10 +7694,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7786,10 +7723,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7815,10 +7752,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7844,10 +7781,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7873,10 +7810,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7902,10 +7839,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7931,10 +7868,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7960,10 +7897,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7989,10 +7926,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8018,10 +7955,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8047,10 +7984,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8076,10 +8013,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8105,10 +8042,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8134,10 +8071,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8163,10 +8100,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8192,10 +8129,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8221,10 +8158,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8250,10 +8187,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8279,10 +8216,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8308,10 +8245,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8337,10 +8274,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8366,10 +8303,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8395,10 +8332,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8424,10 +8361,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>7</v>
@@ -8453,10 +8390,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8482,10 +8419,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8511,10 +8448,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8540,10 +8477,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8569,10 +8506,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8598,10 +8535,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8627,10 +8564,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8656,10 +8593,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8685,10 +8622,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8714,10 +8651,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8743,10 +8680,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8772,10 +8709,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>16</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8801,10 +8738,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8830,10 +8767,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8859,10 +8796,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8888,10 +8825,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8917,10 +8854,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8946,10 +8883,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8975,10 +8912,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9004,10 +8941,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9033,10 +8970,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9062,10 +8999,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9091,10 +9028,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9120,10 +9057,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9149,10 +9086,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9178,10 +9115,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9207,10 +9144,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9236,10 +9173,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9265,10 +9202,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9294,10 +9231,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9323,10 +9260,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9352,10 +9289,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9381,10 +9318,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9410,10 +9347,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9439,10 +9376,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9468,10 +9405,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9497,10 +9434,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9526,10 +9463,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9555,10 +9492,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9584,10 +9521,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9613,10 +9550,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9642,10 +9579,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>43</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9671,10 +9608,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9700,10 +9637,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9729,10 +9666,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9758,10 +9695,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9787,10 +9724,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9816,10 +9753,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9845,10 +9782,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9874,10 +9811,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9903,10 +9840,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9932,10 +9869,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9961,10 +9898,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9990,10 +9927,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10019,10 +9956,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10048,10 +9985,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10077,10 +10014,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10106,10 +10043,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10135,10 +10072,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10164,10 +10101,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10193,10 +10130,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10222,10 +10159,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10251,10 +10188,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10280,10 +10217,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10309,10 +10246,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10338,10 +10275,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>155</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10367,10 +10304,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F264" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10396,10 +10333,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -10425,10 +10362,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10454,10 +10391,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10483,10 +10420,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10512,10 +10449,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10541,10 +10478,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10570,10 +10507,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10599,10 +10536,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10628,10 +10565,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10657,10 +10594,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10686,10 +10623,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10715,10 +10652,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10744,10 +10681,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10773,10 +10710,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10802,10 +10739,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10831,10 +10768,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10860,10 +10797,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10889,10 +10826,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10918,10 +10855,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10947,10 +10884,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10976,10 +10913,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11005,10 +10942,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11034,10 +10971,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11063,10 +11000,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11092,10 +11029,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11121,10 +11058,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11150,10 +11087,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11179,10 +11116,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11208,10 +11145,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11237,10 +11174,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11266,10 +11203,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11295,10 +11232,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11324,10 +11261,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11353,10 +11290,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11382,10 +11319,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11411,10 +11348,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11440,10 +11377,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11469,10 +11406,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -11498,10 +11435,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11527,10 +11464,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11556,10 +11493,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11585,10 +11522,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11614,10 +11551,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11643,10 +11580,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11672,10 +11609,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11701,10 +11638,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11730,10 +11667,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11759,10 +11696,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11788,10 +11725,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11817,10 +11754,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11846,10 +11783,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11875,10 +11812,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11904,10 +11841,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11933,10 +11870,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>5</v>
@@ -11962,10 +11899,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11991,10 +11928,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12020,10 +11957,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12049,10 +11986,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12078,10 +12015,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12107,10 +12044,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12136,10 +12073,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12165,10 +12102,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12194,10 +12131,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12223,10 +12160,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12252,10 +12189,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12281,10 +12218,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12310,10 +12247,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12339,10 +12276,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12368,10 +12305,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12397,10 +12334,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12426,10 +12363,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12455,10 +12392,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12484,10 +12421,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12513,10 +12450,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12542,10 +12479,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12571,10 +12508,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12600,10 +12537,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12629,10 +12566,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>4</v>
@@ -12658,10 +12595,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12687,10 +12624,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12716,10 +12653,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12745,10 +12682,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12774,10 +12711,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="G347" t="n">
         <v>4</v>
@@ -12803,10 +12740,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12832,10 +12769,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12861,10 +12798,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12890,10 +12827,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12919,10 +12856,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12948,10 +12885,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12977,10 +12914,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13006,10 +12943,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13035,10 +12972,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13064,10 +13001,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13093,10 +13030,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13122,10 +13059,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13151,10 +13088,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13180,10 +13117,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13209,10 +13146,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13238,10 +13175,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13267,10 +13204,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13296,10 +13233,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13325,10 +13262,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13354,10 +13291,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13383,10 +13320,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13412,10 +13349,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13441,10 +13378,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13470,10 +13407,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13499,10 +13436,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13528,10 +13465,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13557,10 +13494,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13586,10 +13523,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13615,10 +13552,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13644,10 +13581,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13673,10 +13610,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13702,10 +13639,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13731,10 +13668,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13760,10 +13697,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
@@ -13789,10 +13726,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13818,10 +13755,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13847,10 +13784,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13876,10 +13813,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13905,10 +13842,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13934,10 +13871,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F387" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13963,10 +13900,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F388" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13992,10 +13929,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F389" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14021,10 +13958,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="F390" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14050,10 +13987,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="F391" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14079,10 +14016,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="F392" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14108,10 +14045,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="F393" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14137,10 +14074,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F394" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14166,10 +14103,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="F395" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14195,10 +14132,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F396" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14224,10 +14161,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14253,10 +14190,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14282,10 +14219,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F399" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G399" t="n">
         <v>18</v>
@@ -14311,10 +14248,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F400" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>

--- a/xlsx/道路通行方向_intext.xlsx
+++ b/xlsx/道路通行方向_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
   <si>
     <t>道路通行方向</t>
   </si>
@@ -29,7 +29,7 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_美國_道路通行方向</t>
+    <t>体育运动_体育运动_伊朗_道路通行方向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
@@ -164,10 +164,10 @@
     <t>幕府</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>武士</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%A3%AB_(%E6%97%A5%E6%9C%AC)</t>
+  </si>
+  <si>
+    <t>武士 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%BB%B4%E6%96%B0</t>
@@ -878,10 +878,10 @@
     <t>纳粹德国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9</t>
-  </si>
-  <si>
-    <t>纳粹</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>納粹德國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
@@ -1076,10 +1076,10 @@
     <t>羊角岛饭店</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0</t>
-  </si>
-  <si>
-    <t>丰田</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>豐田汽車</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%9C%B0%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
@@ -1196,12 +1196,6 @@
     <t>起重機</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8A%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>吊車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%B4%99F1</t>
   </si>
   <si>
@@ -1658,10 +1652,10 @@
     <t>约旦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B</t>
-  </si>
-  <si>
-    <t>哈萨克</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1670,10 +1664,10 @@
     <t>科威特</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉尔吉斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -1718,16 +1712,16 @@
     <t>叙利亚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>塔吉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>土库曼</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>塔吉克苏维埃社会主义共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
@@ -1736,10 +1730,10 @@
     <t>阿拉伯聯合大公國</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B</t>
-  </si>
-  <si>
-    <t>乌兹别克</t>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -8540,10 +8534,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8569,10 +8563,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8598,10 +8592,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8627,10 +8621,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8656,10 +8650,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8685,10 +8679,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8714,10 +8708,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8743,10 +8737,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8772,10 +8766,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8801,10 +8795,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8830,10 +8824,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8859,10 +8853,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8888,10 +8882,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8917,10 +8911,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8946,10 +8940,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8975,10 +8969,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9004,10 +8998,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9033,10 +9027,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9062,10 +9056,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9091,10 +9085,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9120,10 +9114,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9149,10 +9143,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9178,10 +9172,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9207,10 +9201,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9236,10 +9230,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9265,10 +9259,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9294,10 +9288,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9323,10 +9317,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9352,10 +9346,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9381,10 +9375,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9410,10 +9404,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9439,10 +9433,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9468,10 +9462,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9497,10 +9491,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9526,10 +9520,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9555,10 +9549,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9584,10 +9578,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9613,10 +9607,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9642,10 +9636,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9671,10 +9665,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9700,10 +9694,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9729,10 +9723,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9758,10 +9752,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9787,10 +9781,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9816,10 +9810,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9845,10 +9839,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9874,10 +9868,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9903,10 +9897,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9932,10 +9926,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9961,10 +9955,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9990,10 +9984,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10019,10 +10013,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10048,10 +10042,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10077,10 +10071,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10106,10 +10100,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10135,10 +10129,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10164,10 +10158,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10193,10 +10187,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10222,10 +10216,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10251,10 +10245,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10280,10 +10274,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10309,10 +10303,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10338,10 +10332,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10396,10 +10390,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -10425,10 +10419,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10454,10 +10448,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10483,10 +10477,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10512,10 +10506,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10541,10 +10535,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10570,10 +10564,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10599,10 +10593,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10628,10 +10622,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10657,10 +10651,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10686,10 +10680,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10715,10 +10709,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10744,10 +10738,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10773,10 +10767,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10802,10 +10796,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10831,10 +10825,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10860,10 +10854,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10889,10 +10883,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10918,10 +10912,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10947,10 +10941,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10976,10 +10970,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11005,10 +10999,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11034,10 +11028,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11063,10 +11057,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11092,10 +11086,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11121,10 +11115,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11150,10 +11144,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11179,10 +11173,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11208,10 +11202,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11237,10 +11231,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11266,10 +11260,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11295,10 +11289,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11324,10 +11318,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11353,10 +11347,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11382,10 +11376,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11411,10 +11405,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11440,10 +11434,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11469,10 +11463,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -11498,10 +11492,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11527,10 +11521,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11556,10 +11550,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11585,10 +11579,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11614,10 +11608,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11643,10 +11637,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11672,10 +11666,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11701,10 +11695,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11730,10 +11724,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11759,10 +11753,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11788,10 +11782,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11817,10 +11811,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11846,10 +11840,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11875,10 +11869,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11904,10 +11898,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11933,10 +11927,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G318" t="n">
         <v>5</v>
@@ -11962,10 +11956,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11991,10 +11985,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12020,10 +12014,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12049,10 +12043,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12078,10 +12072,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12107,10 +12101,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12136,10 +12130,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12165,10 +12159,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12194,10 +12188,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12223,10 +12217,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12252,10 +12246,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12281,10 +12275,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12310,10 +12304,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12339,10 +12333,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12368,10 +12362,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12397,10 +12391,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12426,10 +12420,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12455,10 +12449,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12484,10 +12478,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12513,10 +12507,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12542,10 +12536,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12571,10 +12565,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12600,10 +12594,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12629,10 +12623,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G342" t="n">
         <v>4</v>
@@ -12658,10 +12652,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12687,10 +12681,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12716,10 +12710,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12745,10 +12739,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12774,10 +12768,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G347" t="n">
         <v>4</v>
@@ -12803,10 +12797,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12832,10 +12826,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12861,10 +12855,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12890,10 +12884,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12919,10 +12913,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12948,10 +12942,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12977,10 +12971,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13006,10 +13000,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13035,10 +13029,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13064,10 +13058,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13093,10 +13087,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13122,10 +13116,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13151,10 +13145,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13180,10 +13174,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13209,10 +13203,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13238,10 +13232,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13267,10 +13261,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13296,10 +13290,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13325,10 +13319,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13354,10 +13348,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13383,10 +13377,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13412,10 +13406,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13441,10 +13435,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13470,10 +13464,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13499,10 +13493,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13528,10 +13522,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13557,10 +13551,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13586,10 +13580,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13615,10 +13609,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13644,10 +13638,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13673,10 +13667,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13702,10 +13696,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13731,10 +13725,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13760,10 +13754,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
@@ -13789,10 +13783,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13818,10 +13812,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13847,10 +13841,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13876,10 +13870,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13905,10 +13899,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13934,10 +13928,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F387" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13963,10 +13957,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F388" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13992,10 +13986,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F389" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14021,10 +14015,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F390" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14050,10 +14044,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F391" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14079,10 +14073,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F392" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14108,10 +14102,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F393" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14137,10 +14131,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F394" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14166,10 +14160,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F395" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14224,10 +14218,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14253,10 +14247,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14314,7 +14308,7 @@
         <v>159</v>
       </c>
       <c r="F400" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
